--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail5 Features.xlsx
@@ -4805,7 +4805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4816,29 +4816,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4859,115 +4857,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4984,72 +4972,66 @@
         <v>7.406535070481743e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.5107339241657478</v>
+        <v>4.220807808875208e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.5139385074814085</v>
+        <v>1.919584823172813e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.220807808875208e-07</v>
+        <v>0.05097547910848739</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.919584823172813e-06</v>
+        <v>0.3267265615787148</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05097547910848739</v>
+        <v>0.1090730012862904</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3267265615787148</v>
+        <v>1.932150888615639</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1090730012862904</v>
+        <v>2.460682815808434</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.964631390944146</v>
+        <v>4.504643534587371</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.460682815808434</v>
+        <v>3.394164524486578e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.504643534587371</v>
+        <v>4018147066.856761</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.394164524486578e-17</v>
+        <v>3.001813989336379e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4018147066.856761</v>
+        <v>548.0050318897994</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.001813989336379e-08</v>
+        <v>0.000147206116615456</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>548.0050318897994</v>
+        <v>12.79146874745356</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000147206116615456</v>
+        <v>1.023240101219007</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.79146874745356</v>
+        <v>0.02408611103480663</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.023240101219007</v>
+        <v>4.046472991039558</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02408611103480663</v>
+        <v>0.9611675356780892</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.046472991039558</v>
+        <v>0.9229065233069992</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9611675356780892</v>
+        <v>223</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9229065233069992</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>4.240827588341037</v>
       </c>
     </row>
@@ -5064,72 +5046,66 @@
         <v>6.76802725825354e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.02253768707171509</v>
+        <v>2.906783677046323e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.189098293732352</v>
+        <v>1.922223527633148e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.906783677046323e-07</v>
+        <v>0.02427872799633616</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.922223527633148e-06</v>
+        <v>0.2585820596635813</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.02427872799633616</v>
+        <v>0.06727986971061424</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2585820596635813</v>
+        <v>1.930019376317889</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06727986971061424</v>
+        <v>2.682331158616888</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.962750215377194</v>
+        <v>4.250467754051668</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.682331158616888</v>
+        <v>3.812240561006975e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.250467754051668</v>
+        <v>3745583545.079333</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.812240561006975e-17</v>
+        <v>3.226553467414238e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3745583545.079333</v>
+        <v>534.834328328119</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.226553467414238e-08</v>
+        <v>0.0001359451127957245</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>534.834328328119</v>
+        <v>12.08999195881251</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001359451127957245</v>
+        <v>1.069072332501528</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.08999195881251</v>
+        <v>0.01987081240903335</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.069072332501528</v>
+        <v>4.18812029381932</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01987081240903335</v>
+        <v>0.9610337325683214</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.18812029381932</v>
+        <v>0.9495497773492115</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9610337325683214</v>
+        <v>207</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9495497773492115</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.975024784790747</v>
       </c>
     </row>
@@ -5144,72 +5120,66 @@
         <v>6.61883125753022e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1107071809071426</v>
+        <v>1.996348266159508e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.345996400274897</v>
+        <v>1.92306843425791e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.996348266159508e-07</v>
+        <v>0.002210580575564909</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.92306843425791e-06</v>
+        <v>0.1910148211064106</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.002210580575564909</v>
+        <v>0.03639848187042082</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1910148211064106</v>
+        <v>1.918986693248067</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03639848187042082</v>
+        <v>2.783066247898891</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.943957889542604</v>
+        <v>4.723835472153649</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.783066247898891</v>
+        <v>4.269674806880693e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.723835472153649</v>
+        <v>3329939479.970296</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.269674806880693e-17</v>
+        <v>3.621595593674075e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3329939479.970296</v>
+        <v>473.4427603202245</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.621595593674075e-08</v>
+        <v>0.0001412915155691179</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>473.4427603202245</v>
+        <v>10.89212580590014</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001412915155691179</v>
+        <v>1.394746289436839</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.89212580590014</v>
+        <v>0.01676259998661727</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.394746289436839</v>
+        <v>4.397877150354168</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01676259998661727</v>
+        <v>0.9601947318823608</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.397877150354168</v>
+        <v>1.150213154082171</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9601947318823608</v>
+        <v>171</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.150213154082171</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>171</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.549027009766333</v>
       </c>
     </row>
@@ -5224,72 +5194,66 @@
         <v>6.656674354217617e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1111135935413676</v>
+        <v>1.996348266159508e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.359163648422923</v>
+        <v>1.922650405282797e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.996348266159508e-07</v>
+        <v>-0.01370253870317215</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.922650405282797e-06</v>
+        <v>0.1372309909386485</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01370253870317215</v>
+        <v>0.01897385676039372</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1372309909386485</v>
+        <v>1.920703076339909</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01897385676039372</v>
+        <v>2.68215566573359</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.946529690908402</v>
+        <v>4.546926294390953</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.68215566573359</v>
+        <v>5.727231145341213e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.546926294390953</v>
+        <v>2519133529.243981</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.727231145341213e-17</v>
+        <v>4.80284507305704e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2519133529.243981</v>
+        <v>363.4520207458315</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.80284507305704e-08</v>
+        <v>0.0001878525480029478</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>363.4520207458315</v>
+        <v>10.98784748425782</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001878525480029478</v>
+        <v>1.600123271871749</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.98784748425782</v>
+        <v>0.02267996266807462</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.600123271871749</v>
+        <v>3.924312425116643</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02267996266807462</v>
+        <v>0.9604294617953045</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.924312425116643</v>
+        <v>1.177297414772406</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9604294617953045</v>
+        <v>126</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.177297414772406</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.402215682891454</v>
       </c>
     </row>
@@ -5304,72 +5268,66 @@
         <v>6.727659673442332e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1405115400721039</v>
+        <v>1.996348266159508e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.389549986993463</v>
+        <v>1.921340672290132e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.996348266159508e-07</v>
+        <v>-0.02461943992766359</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.921340672290132e-06</v>
+        <v>0.09864981178421421</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02461943992766359</v>
+        <v>0.0103160159101708</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09864981178421421</v>
+        <v>1.925240118935911</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0103160159101708</v>
+        <v>2.676371340635709</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.945672807733558</v>
+        <v>4.175267327218521</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.676371340635709</v>
+        <v>7.169047508786212e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.175267327218521</v>
+        <v>2073820389.881304</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.169047508786212e-17</v>
+        <v>5.844141635072942e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2073820389.881304</v>
+        <v>308.3214492952558</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.844141635072942e-08</v>
+        <v>0.0001567910697270622</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>308.3214492952558</v>
+        <v>11.35784785366078</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001567910697270622</v>
+        <v>1.404988848603605</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.35784785366078</v>
+        <v>0.02022615898200056</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.404988848603605</v>
+        <v>3.634199241395256</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02022615898200056</v>
+        <v>0.9611758876926951</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.634199241395256</v>
+        <v>1.229860823395365</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9611758876926951</v>
+        <v>92</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.229860823395365</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.423583862486234</v>
       </c>
     </row>
@@ -5384,72 +5342,66 @@
         <v>6.770085582406245e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1971511188311584</v>
+        <v>1.996348266159508e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.391100535862492</v>
+        <v>1.91940556312578e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.996348266159508e-07</v>
+        <v>-0.0321855433320422</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.91940556312578e-06</v>
+        <v>0.0726482218050208</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0321855433320422</v>
+        <v>0.00630379671892405</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.0726482218050208</v>
+        <v>1.920478680278356</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.00630379671892405</v>
+        <v>2.633221527597575</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.94122102351986</v>
+        <v>4.155237130134114</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.633221527597575</v>
+        <v>9.847959897146672e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.155237130134114</v>
+        <v>1508457385.760521</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.847959897146672e-17</v>
+        <v>8.027510221348693e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1508457385.760521</v>
+        <v>224.0847815470268</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.027510221348693e-08</v>
+        <v>0.000138689004639187</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>224.0847815470268</v>
+        <v>11.1282287697575</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000138689004639187</v>
+        <v>1.197447136450969</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.1282287697575</v>
+        <v>0.01717489622134467</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.197447136450969</v>
+        <v>3.365638348856258</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01717489622134467</v>
+        <v>0.9604498903294685</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.365638348856258</v>
+        <v>1.220810276186145</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9604498903294685</v>
+        <v>80</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.220810276186145</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.8790950783208139</v>
       </c>
     </row>
@@ -5826,7 +5778,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.446937266205086</v>
+        <v>1.435979091618132</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.669289598199288</v>
@@ -5915,7 +5867,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.46679383032011</v>
+        <v>1.452336895627923</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.370338205200925</v>
@@ -6004,7 +5956,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.473548314572871</v>
+        <v>1.45753073802586</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.482362327237836</v>
@@ -6093,7 +6045,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.486156510797575</v>
+        <v>1.470820853343317</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.643911209610428</v>
@@ -6182,7 +6134,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.45436978397849</v>
+        <v>1.443584842324499</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.512858030224283</v>
@@ -6271,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.452984850978044</v>
+        <v>1.442673512165352</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.476966723593796</v>
@@ -6360,7 +6312,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.455826876374561</v>
+        <v>1.447391478676491</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.327221957125359</v>
@@ -6449,7 +6401,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.46538439417939</v>
+        <v>1.452655540712289</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.380516146430697</v>
@@ -6538,7 +6490,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.484903798183678</v>
+        <v>1.470846925000995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.394468008168318</v>
@@ -6627,7 +6579,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.4987800951291</v>
+        <v>1.487932826770357</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.411474510034342</v>
@@ -6716,7 +6668,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.489180252111631</v>
+        <v>1.478884023389666</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.571437888190762</v>
@@ -6805,7 +6757,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.482459570673346</v>
+        <v>1.476976723578607</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.465507545616804</v>
@@ -6894,7 +6846,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.482898508207142</v>
+        <v>1.477298286894096</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.394242447110702</v>
@@ -6983,7 +6935,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.459181673394875</v>
+        <v>1.45429557090774</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.364435344454808</v>
@@ -7072,7 +7024,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.486422593300665</v>
+        <v>1.477581732171265</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.300603925031431</v>
@@ -7161,7 +7113,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.489138601173979</v>
+        <v>1.483810685491548</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.383882461811221</v>
@@ -7250,7 +7202,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.483189211416249</v>
+        <v>1.483325683162644</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.419154800738261</v>
@@ -7339,7 +7291,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.470973428069293</v>
+        <v>1.472620585271567</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.589677841165261</v>
@@ -7428,7 +7380,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.446287930272765</v>
+        <v>1.44766060845029</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.325793595902335</v>
@@ -7517,7 +7469,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.431267413366249</v>
+        <v>1.432914205543287</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.530854038780577</v>
@@ -7606,7 +7558,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.417160604032809</v>
+        <v>1.41510709022781</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.439432235534273</v>
@@ -7695,7 +7647,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.416248433486246</v>
+        <v>1.414795041190098</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.527183696878593</v>
@@ -7784,7 +7736,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.409695729626998</v>
+        <v>1.405311968691522</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.459322406372141</v>
@@ -7873,7 +7825,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.403102100058353</v>
+        <v>1.397225631623106</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.443708291630251</v>
@@ -7962,7 +7914,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.382510105834012</v>
+        <v>1.377924020051267</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.610932757499759</v>
@@ -8051,7 +8003,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.387001966194151</v>
+        <v>1.3825380265568</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.522523919544571</v>
@@ -8140,7 +8092,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.378652869362652</v>
+        <v>1.374563286852607</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.561736350365736</v>
@@ -8229,7 +8181,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.387181068621464</v>
+        <v>1.382544683074692</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.53525326042446</v>
@@ -8318,7 +8270,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.383702568944027</v>
+        <v>1.383046083589303</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.495694458000307</v>
@@ -8407,7 +8359,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.381718061325993</v>
+        <v>1.380735109815806</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.591836977882935</v>
@@ -8496,7 +8448,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.390791394237822</v>
+        <v>1.384800839861481</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.343963032363316</v>
@@ -8585,7 +8537,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.408060774426093</v>
+        <v>1.401399782904742</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.603249044466414</v>
@@ -8674,7 +8626,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.417107204845469</v>
+        <v>1.406743663908386</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.592203287784169</v>
@@ -8763,7 +8715,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.45871327342984</v>
+        <v>1.446182025955708</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.509298526520537</v>
@@ -8852,7 +8804,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.487023832542618</v>
+        <v>1.468131405802935</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.575907575017723</v>
@@ -8941,7 +8893,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.520899458138118</v>
+        <v>1.503653309479992</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.717059965239391</v>
@@ -9030,7 +8982,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.519930681665846</v>
+        <v>1.503646774642865</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.715097477112637</v>
@@ -9119,7 +9071,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.540803523460557</v>
+        <v>1.520916117940813</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.690853208122955</v>
@@ -9208,7 +9160,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.540677078511679</v>
+        <v>1.530708764431522</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.650007901750933</v>
@@ -9297,7 +9249,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.540102872520679</v>
+        <v>1.526863655273099</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.545733986082281</v>
@@ -9386,7 +9338,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.552010256249646</v>
+        <v>1.54010544433352</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.450800019849566</v>
@@ -9475,7 +9427,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.579808129618451</v>
+        <v>1.560206444544076</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.424350392057319</v>
@@ -9564,7 +9516,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.590514006370901</v>
+        <v>1.567122624132843</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.379977769430319</v>
@@ -9653,7 +9605,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.616363376370926</v>
+        <v>1.588556638269858</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.456607657913962</v>
@@ -9742,7 +9694,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.621659611329866</v>
+        <v>1.592373267881611</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.684448994148181</v>
@@ -9831,7 +9783,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.612475884340821</v>
+        <v>1.58717197750832</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.560201762205996</v>
@@ -9920,7 +9872,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.565105971588437</v>
+        <v>1.547875426395786</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.508535960990557</v>
@@ -10009,7 +9961,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.550325407338181</v>
+        <v>1.530411008554033</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.590080217518417</v>
@@ -10098,7 +10050,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.520144085550048</v>
+        <v>1.509713422601727</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.575311209219171</v>
@@ -10187,7 +10139,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.53995449952838</v>
+        <v>1.529895661465755</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.568011893941039</v>
@@ -10276,7 +10228,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.537694378332034</v>
+        <v>1.529252098025299</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.5267333864582</v>
@@ -10562,7 +10514,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.513541719187412</v>
+        <v>1.474653096873165</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.7695277425083</v>
@@ -10651,7 +10603,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509994716075306</v>
+        <v>1.463186146133614</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.614918888905282</v>
@@ -10740,7 +10692,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.522425788177777</v>
+        <v>1.471235802736729</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.682863483659172</v>
@@ -10829,7 +10781,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.513689837859393</v>
+        <v>1.46228729840528</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.487518175567751</v>
@@ -10918,7 +10870,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.523398389861286</v>
+        <v>1.472030521718364</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.593861920291954</v>
@@ -11007,7 +10959,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.553216745485241</v>
+        <v>1.500733942552848</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.499490992019331</v>
@@ -11096,7 +11048,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.585230173098945</v>
+        <v>1.525226831549359</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.610765741775695</v>
@@ -11185,7 +11137,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.601908343476981</v>
+        <v>1.53742131971472</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.360857262108084</v>
@@ -11274,7 +11226,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.605228543481281</v>
+        <v>1.531608722195884</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.25280686257166</v>
@@ -11363,7 +11315,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.614786745042806</v>
+        <v>1.540066020814599</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.354503249132063</v>
@@ -11452,7 +11404,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.609496290604719</v>
+        <v>1.532849107557786</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.47796375778048</v>
@@ -11541,7 +11493,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.614672378623156</v>
+        <v>1.546008604140223</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.123256764377254</v>
@@ -11630,7 +11582,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.618216811532151</v>
+        <v>1.551686327168686</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.972026228243549</v>
@@ -11719,7 +11671,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.620355624284696</v>
+        <v>1.554095337693347</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.911011604718603</v>
@@ -11808,7 +11760,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.626388842262369</v>
+        <v>1.566206815080652</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.224990228999244</v>
@@ -11897,7 +11849,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625511768320126</v>
+        <v>1.572474737686889</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.788131188435954</v>
@@ -11986,7 +11938,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.618825996731071</v>
+        <v>1.5704903244376</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.955018077873591</v>
@@ -12075,7 +12027,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597642485712885</v>
+        <v>1.553861264906464</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.934736459587242</v>
@@ -12164,7 +12116,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.600867727056456</v>
+        <v>1.555170313472763</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.022394000501299</v>
@@ -12253,7 +12205,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.584130191492828</v>
+        <v>1.539742396568798</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.68483770285614</v>
@@ -12342,7 +12294,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581826626013538</v>
+        <v>1.535502153556324</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.774020383701989</v>
@@ -12431,7 +12383,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.573452485212602</v>
+        <v>1.524034784776411</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.70874773425565</v>
@@ -12520,7 +12472,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.566742086459659</v>
+        <v>1.521675695300139</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.758988979881641</v>
@@ -12609,7 +12561,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.56337187154564</v>
+        <v>1.518341494081968</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.732673220091589</v>
@@ -12698,7 +12650,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.554315354128536</v>
+        <v>1.516979731935932</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.680829197547751</v>
@@ -12787,7 +12739,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.549592518964176</v>
+        <v>1.51536560030004</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.727012010763887</v>
@@ -12876,7 +12828,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.545539453146497</v>
+        <v>1.51153282535661</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.676281480111597</v>
@@ -12965,7 +12917,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.549916787111441</v>
+        <v>1.516249750527711</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.698560786632085</v>
@@ -13054,7 +13006,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.55004298821796</v>
+        <v>1.516249753778922</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.690540736806413</v>
@@ -13143,7 +13095,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.538243472986319</v>
+        <v>1.505338362584851</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.708198974138188</v>
@@ -13232,7 +13184,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.539893669046169</v>
+        <v>1.50356354266399</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.713488395213943</v>
@@ -13321,7 +13273,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.541224171988973</v>
+        <v>1.505540169005087</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.648370409123478</v>
@@ -13410,7 +13362,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.546273981413483</v>
+        <v>1.513474346339156</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.71521199666024</v>
@@ -13499,7 +13451,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.539525189790258</v>
+        <v>1.508523268404377</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.627671636006163</v>
@@ -13588,7 +13540,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.545512633220487</v>
+        <v>1.511082664973305</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.175545612921884</v>
@@ -13677,7 +13629,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.556325795783963</v>
+        <v>1.522623033120895</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.187351459559425</v>
@@ -13766,7 +13718,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.557609464225704</v>
+        <v>1.528793010852595</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.229152056217716</v>
@@ -13855,7 +13807,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.55724013460808</v>
+        <v>1.527903903061142</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.998991064335975</v>
@@ -13944,7 +13896,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.567724963972646</v>
+        <v>1.542988285392478</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.98231694993863</v>
@@ -14033,7 +13985,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.558985266547068</v>
+        <v>1.536780421535901</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.043156489162838</v>
@@ -14122,7 +14074,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.564751075637128</v>
+        <v>1.540050974656259</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.861000844453961</v>
@@ -14211,7 +14163,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550596884148381</v>
+        <v>1.530052897578693</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.96382377259611</v>
@@ -14300,7 +14252,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.54896903746191</v>
+        <v>1.529306603971867</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.371546697642212</v>
@@ -14389,7 +14341,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.555859795355488</v>
+        <v>1.533017965065899</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.11509384215569</v>
@@ -14478,7 +14430,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.558476340355322</v>
+        <v>1.530437478358093</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.158173807404413</v>
@@ -14567,7 +14519,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.552595588008778</v>
+        <v>1.52515801455038</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.194041041978526</v>
@@ -14656,7 +14608,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.547654658665407</v>
+        <v>1.527765852281868</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.081032543914159</v>
@@ -14745,7 +14697,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.565817512863708</v>
+        <v>1.53635208477834</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.271207433484077</v>
@@ -14834,7 +14786,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.567150286251122</v>
+        <v>1.53857164478632</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.991620088274512</v>
@@ -14923,7 +14875,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.583577418408429</v>
+        <v>1.55554160094493</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.315177355215423</v>
@@ -15012,7 +14964,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.579587363744301</v>
+        <v>1.551961227305837</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.100052082594466</v>
@@ -15298,7 +15250,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.613617371300615</v>
+        <v>1.50738146023879</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.679157801586169</v>
@@ -15387,7 +15339,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.623075681385996</v>
+        <v>1.506479681138706</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.190704686166598</v>
@@ -15476,7 +15428,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.620902415463266</v>
+        <v>1.502570208595457</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.574770201437496</v>
@@ -15565,7 +15517,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.611945001436263</v>
+        <v>1.494975430276959</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.656041170806188</v>
@@ -15654,7 +15606,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.611569738423371</v>
+        <v>1.486976179133594</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.539451641279594</v>
@@ -15743,7 +15695,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.611936577040569</v>
+        <v>1.481937237351527</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.629025135400184</v>
@@ -15832,7 +15784,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.612170614368296</v>
+        <v>1.485441005215783</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.117481345859145</v>
@@ -15921,7 +15873,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.607357058202035</v>
+        <v>1.479541112521447</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.119989616355861</v>
@@ -16010,7 +15962,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.608606431299921</v>
+        <v>1.48519183602608</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.078757851783</v>
@@ -16099,7 +16051,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.613178009861812</v>
+        <v>1.492602449270997</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.812742804721434</v>
@@ -16188,7 +16140,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.61898898935281</v>
+        <v>1.500349469634702</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.994530765834524</v>
@@ -16277,7 +16229,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.625711167051927</v>
+        <v>1.511068621374721</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.881798695610756</v>
@@ -16366,7 +16318,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.625019052766931</v>
+        <v>1.513264101024532</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.906335033454249</v>
@@ -16455,7 +16407,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636866457793213</v>
+        <v>1.514805893396006</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.876761816251112</v>
@@ -16544,7 +16496,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.633210973279435</v>
+        <v>1.513532403276062</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.000517506214585</v>
@@ -16633,7 +16585,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625501243663128</v>
+        <v>1.511042625611245</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.657683328459255</v>
@@ -16722,7 +16674,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.61912463485243</v>
+        <v>1.505812257579019</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.917145264438472</v>
@@ -16811,7 +16763,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.613516578341356</v>
+        <v>1.507598197008497</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.912789076652421</v>
@@ -16900,7 +16852,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.621229052937633</v>
+        <v>1.519067132685032</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.812028553951109</v>
@@ -16989,7 +16941,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.627522862934266</v>
+        <v>1.527369200088978</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.771249581147604</v>
@@ -17078,7 +17030,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.632927034225333</v>
+        <v>1.53758465554786</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.115921657870995</v>
@@ -17167,7 +17119,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.630328722364773</v>
+        <v>1.532156743270752</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.209944082357276</v>
@@ -17256,7 +17208,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.640998859226541</v>
+        <v>1.540343209273854</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.064480410305349</v>
@@ -17345,7 +17297,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.640362052068248</v>
+        <v>1.535555799397472</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.068541255315061</v>
@@ -17434,7 +17386,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629480645595317</v>
+        <v>1.527428140571819</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.246439587624973</v>
@@ -17523,7 +17475,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.617571566825013</v>
+        <v>1.520839765392955</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.074164081262043</v>
@@ -17612,7 +17564,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.609494657508008</v>
+        <v>1.515390005216448</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.227075337937593</v>
@@ -17701,7 +17653,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.599968476178637</v>
+        <v>1.514172320572744</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.172750243681125</v>
@@ -17790,7 +17742,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.592713513310851</v>
+        <v>1.526434088707915</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.203777024880978</v>
@@ -17879,7 +17831,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.603563160575471</v>
+        <v>1.539374887045176</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.462763782314016</v>
@@ -17968,7 +17920,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.606378139346488</v>
+        <v>1.547267645204494</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.255193895832939</v>
@@ -18057,7 +18009,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.608581412145042</v>
+        <v>1.553465425237419</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.149943413565321</v>
@@ -18146,7 +18098,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.619230197533789</v>
+        <v>1.553065871128725</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.2316236455376</v>
@@ -18235,7 +18187,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.612697880538084</v>
+        <v>1.546215180129182</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.119041799720187</v>
@@ -18324,7 +18276,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.610947437384546</v>
+        <v>1.539270827628687</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.267105151729508</v>
@@ -18413,7 +18365,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.611176007317764</v>
+        <v>1.534770360163464</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.143771353164765</v>
@@ -18502,7 +18454,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.610586909606522</v>
+        <v>1.524391156734812</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.048194735414889</v>
@@ -18591,7 +18543,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.609501552356432</v>
+        <v>1.525617780581187</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.420512231925267</v>
@@ -18680,7 +18632,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.610842832098484</v>
+        <v>1.537433536566088</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.962475279941254</v>
@@ -18769,7 +18721,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.626759218379535</v>
+        <v>1.552701337871055</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.426853439281182</v>
@@ -18858,7 +18810,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.634443745338207</v>
+        <v>1.558379420944527</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.245485927202759</v>
@@ -18947,7 +18899,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.641477345117451</v>
+        <v>1.558982683685626</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.728310373485326</v>
@@ -19036,7 +18988,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.653614181765494</v>
+        <v>1.559571094199815</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.245589376759878</v>
@@ -19125,7 +19077,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.665388947212218</v>
+        <v>1.563505017191634</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.307247006926912</v>
@@ -19214,7 +19166,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.655446574878022</v>
+        <v>1.552686074567585</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.6579125994791</v>
@@ -19303,7 +19255,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.643854282041207</v>
+        <v>1.546556138890464</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.254788843334518</v>
@@ -19392,7 +19344,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.629803800411522</v>
+        <v>1.533188904556561</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.693135737554913</v>
@@ -19481,7 +19433,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.62506092498759</v>
+        <v>1.527004090897826</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.321882639485147</v>
@@ -19570,7 +19522,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.62000093119027</v>
+        <v>1.52647292238455</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.296771632027563</v>
@@ -19659,7 +19611,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.609644608634144</v>
+        <v>1.523721044296466</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.483718599370497</v>
@@ -19748,7 +19700,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.615352200164712</v>
+        <v>1.53713205685713</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.066757679282077</v>
@@ -20034,7 +19986,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.39940500554839</v>
+        <v>1.342454208701755</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.246174245403465</v>
@@ -20123,7 +20075,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.415879993947869</v>
+        <v>1.350757230095589</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.160406103711031</v>
@@ -20212,7 +20164,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.421139733165265</v>
+        <v>1.351902350656393</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.27299725059718</v>
@@ -20301,7 +20253,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.393399391621398</v>
+        <v>1.331155692403146</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.166914925348294</v>
@@ -20390,7 +20342,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.411806579163016</v>
+        <v>1.345330054634526</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.262445923418541</v>
@@ -20479,7 +20431,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.445166630652237</v>
+        <v>1.376790420816273</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.982645033218384</v>
@@ -20568,7 +20520,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.45757953355409</v>
+        <v>1.39135929181421</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.396773605550314</v>
@@ -20657,7 +20609,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.472373678854453</v>
+        <v>1.407950990721218</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.189902252990021</v>
@@ -20746,7 +20698,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.429433784790127</v>
+        <v>1.377406747058888</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.109800004544664</v>
@@ -20835,7 +20787,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.439801450733665</v>
+        <v>1.390001478107782</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.18801695411604</v>
@@ -20924,7 +20876,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.445270265185864</v>
+        <v>1.402812294201341</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.1953598398248</v>
@@ -21013,7 +20965,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.432636192515927</v>
+        <v>1.405529325593817</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.118644288209435</v>
@@ -21102,7 +21054,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.437078888889559</v>
+        <v>1.407861476382566</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.206486620855729</v>
@@ -21191,7 +21143,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.464695277500792</v>
+        <v>1.42983806276714</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.246712338162265</v>
@@ -21280,7 +21232,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.448821122256042</v>
+        <v>1.418457675761742</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.216240636800601</v>
@@ -21369,7 +21321,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.450486500555765</v>
+        <v>1.425254211057207</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.141680513880397</v>
@@ -21458,7 +21410,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.444981318277183</v>
+        <v>1.425048319517619</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.245587274037742</v>
@@ -21547,7 +21499,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.433186033667358</v>
+        <v>1.419551280052263</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.08832118185445</v>
@@ -21636,7 +21588,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.44775284921797</v>
+        <v>1.429263630060062</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.054792290888041</v>
@@ -21725,7 +21677,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.445222501263512</v>
+        <v>1.426945349644279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.18893713263871</v>
@@ -21814,7 +21766,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.42236845514747</v>
+        <v>1.406523768834408</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.100505692085711</v>
@@ -21903,7 +21855,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.435232160888046</v>
+        <v>1.413670822692831</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.086424744325544</v>
@@ -21992,7 +21944,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.459798007087858</v>
+        <v>1.431291041370505</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.050860699517761</v>
@@ -22081,7 +22033,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.477621186302843</v>
+        <v>1.438645035140408</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.636284049292135</v>
@@ -22170,7 +22122,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.448448978500254</v>
+        <v>1.408732825840084</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.444139666092636</v>
@@ -22259,7 +22211,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.426206573863437</v>
+        <v>1.384537554998938</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.437868030709829</v>
@@ -22348,7 +22300,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.439779151387828</v>
+        <v>1.395646620082926</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.370116444235725</v>
@@ -22437,7 +22389,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.430460778917564</v>
+        <v>1.388916373554576</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.380507194729597</v>
@@ -22526,7 +22478,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.427999609198618</v>
+        <v>1.387845106926815</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.283241484751344</v>
@@ -22615,7 +22567,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.440289385439054</v>
+        <v>1.397515230747059</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.358480041232774</v>
@@ -22704,7 +22656,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.431641759884655</v>
+        <v>1.388594644655041</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.344891628865534</v>
@@ -22793,7 +22745,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.435651771727682</v>
+        <v>1.391572782450553</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.545476662569262</v>
@@ -22882,7 +22834,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.452843369857085</v>
+        <v>1.407319543183212</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.307578787750612</v>
@@ -22971,7 +22923,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.470514626587325</v>
+        <v>1.423129653172941</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.464633753015188</v>
@@ -23060,7 +23012,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.476074536707003</v>
+        <v>1.424795166015399</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.431651130253772</v>
@@ -23149,7 +23101,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.466818305475703</v>
+        <v>1.419595230625627</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.433742178214523</v>
@@ -23238,7 +23190,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.465912396572919</v>
+        <v>1.420978171657719</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.1483297766081</v>
@@ -23327,7 +23279,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.466280460738391</v>
+        <v>1.421541352229931</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.469290426021448</v>
@@ -23416,7 +23368,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.472795695487805</v>
+        <v>1.43561814280411</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.167416325261197</v>
@@ -23505,7 +23457,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.478266095431513</v>
+        <v>1.44593992593459</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.383099939824887</v>
@@ -23594,7 +23546,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.505406328253674</v>
+        <v>1.468220635094864</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.459686042946536</v>
@@ -23683,7 +23635,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.51611955127384</v>
+        <v>1.476791585711014</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.586436982420304</v>
@@ -23772,7 +23724,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.499232094733172</v>
+        <v>1.456466237013806</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.424385242405397</v>
@@ -23861,7 +23813,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.504521507246454</v>
+        <v>1.459264150521184</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.456998929870665</v>
@@ -23950,7 +23902,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.491321522202953</v>
+        <v>1.446234088501098</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.594811887915145</v>
@@ -24039,7 +23991,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.478296072304569</v>
+        <v>1.438746766440991</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.427652125057273</v>
@@ -24128,7 +24080,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.475542480402867</v>
+        <v>1.435748455538008</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.609014083808908</v>
@@ -24217,7 +24169,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.469878247892315</v>
+        <v>1.427535186229757</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.502619403240169</v>
@@ -24306,7 +24258,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.44838283048549</v>
+        <v>1.410420288542086</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.656514142827569</v>
@@ -24395,7 +24347,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.441815049815265</v>
+        <v>1.407379887041247</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.660128726109927</v>
@@ -24484,7 +24436,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.461121730765303</v>
+        <v>1.419864188049842</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.640030877232127</v>
@@ -24770,7 +24722,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.280329923653152</v>
+        <v>1.263836704758915</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.401539812505681</v>
@@ -24859,7 +24811,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.285798989111337</v>
+        <v>1.264769736549628</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.338931402533668</v>
@@ -24948,7 +24900,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.295309222790613</v>
+        <v>1.274612025360033</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.194021146776156</v>
@@ -25037,7 +24989,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.278310220713704</v>
+        <v>1.257698022671978</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.333602680955706</v>
@@ -25126,7 +25078,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.303424929674945</v>
+        <v>1.279589207680082</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.27298282002163</v>
@@ -25215,7 +25167,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.322513277476188</v>
+        <v>1.293697756366899</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.369448526378529</v>
@@ -25304,7 +25256,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.313497519137249</v>
+        <v>1.286586279581201</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.11154960319424</v>
@@ -25393,7 +25345,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.306531907842877</v>
+        <v>1.274513873396635</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.351599824314799</v>
@@ -25482,7 +25434,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.312599968768767</v>
+        <v>1.286060811272159</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.339466708557615</v>
@@ -25571,7 +25523,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.324182945539034</v>
+        <v>1.294359224202081</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.329999347252496</v>
@@ -25660,7 +25612,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.334323935178504</v>
+        <v>1.301019465619478</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.384250792520064</v>
@@ -25749,7 +25701,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.330531726374714</v>
+        <v>1.301430019773809</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.256411935722792</v>
@@ -25838,7 +25790,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.329428007240136</v>
+        <v>1.3036921073505</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.332961002326693</v>
@@ -25927,7 +25879,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.343052168212617</v>
+        <v>1.315967112378916</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.368033955274327</v>
@@ -26016,7 +25968,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.336363011773743</v>
+        <v>1.318667736899577</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.239994511268805</v>
@@ -26105,7 +26057,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.34092254805066</v>
+        <v>1.322712315116362</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.27581337797371</v>
@@ -26194,7 +26146,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.332528065221268</v>
+        <v>1.313705156683528</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.335758410497792</v>
@@ -26283,7 +26235,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.319424095480618</v>
+        <v>1.3017603612779</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.3727567062359</v>
@@ -26372,7 +26324,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.336350252364459</v>
+        <v>1.321420913956062</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.238482031875085</v>
@@ -26461,7 +26413,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.321406266998495</v>
+        <v>1.305207720890631</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.31866561680892</v>
@@ -26550,7 +26502,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.313734110377263</v>
+        <v>1.304804933966243</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.180283349574984</v>
@@ -26639,7 +26591,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.325549173223461</v>
+        <v>1.315273100728795</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.456337092547684</v>
@@ -26728,7 +26680,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.333529439351369</v>
+        <v>1.326646403889565</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.367876360121764</v>
@@ -26817,7 +26769,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.331691272897149</v>
+        <v>1.322125178279032</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.265971186066148</v>
@@ -26906,7 +26858,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.339266624230923</v>
+        <v>1.331158056201869</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.299823610397065</v>
@@ -26995,7 +26947,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.348758201641151</v>
+        <v>1.339531991641636</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.284300148820901</v>
@@ -27084,7 +27036,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.331778760591107</v>
+        <v>1.323565861793222</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.499948626265161</v>
@@ -27173,7 +27125,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.319560476483379</v>
+        <v>1.313822704043742</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.438184889842651</v>
@@ -27262,7 +27214,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.324297568139221</v>
+        <v>1.318604271024846</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.473340004318332</v>
@@ -27351,7 +27303,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.319298991922857</v>
+        <v>1.312587253320256</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.509628394545041</v>
@@ -27440,7 +27392,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.31929415023415</v>
+        <v>1.312839096438989</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.464681735472106</v>
@@ -27529,7 +27481,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.326613372894368</v>
+        <v>1.32183041438547</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.47159424419007</v>
@@ -27618,7 +27570,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.338613965213884</v>
+        <v>1.328301051909555</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.37653253925667</v>
@@ -27707,7 +27659,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.324296165340591</v>
+        <v>1.309013710978128</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.456128990579152</v>
@@ -27796,7 +27748,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.332789616700865</v>
+        <v>1.315368443502926</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.35747352307797</v>
@@ -27885,7 +27837,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.323929305015503</v>
+        <v>1.309122787667124</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.425077699180931</v>
@@ -27974,7 +27926,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.331581842522592</v>
+        <v>1.31549023516545</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.506097504081165</v>
@@ -28063,7 +28015,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.327606871394857</v>
+        <v>1.31530582486252</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.480063829594148</v>
@@ -28152,7 +28104,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.334229650782402</v>
+        <v>1.324438446417149</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.51253632302384</v>
@@ -28241,7 +28193,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.339690719639471</v>
+        <v>1.329362683687483</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.544572183956128</v>
@@ -28330,7 +28282,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.340007171550441</v>
+        <v>1.328670881911748</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.105015125975225</v>
@@ -28419,7 +28371,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.334018814539492</v>
+        <v>1.32327924784605</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.490388616285108</v>
@@ -28508,7 +28460,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.34332790027497</v>
+        <v>1.331138515414907</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.528169927679084</v>
@@ -28597,7 +28549,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.341106569585377</v>
+        <v>1.326327320539123</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.553232852842011</v>
@@ -28686,7 +28638,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.328758534587184</v>
+        <v>1.320566084257154</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.394217236758905</v>
@@ -28775,7 +28727,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.326444966524027</v>
+        <v>1.315904106344128</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.495993934431572</v>
@@ -28864,7 +28816,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.301721941747035</v>
+        <v>1.295252168802204</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.563628741245985</v>
@@ -28953,7 +28905,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.291793266290406</v>
+        <v>1.28965896127991</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.387485330267599</v>
@@ -29042,7 +28994,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.297384628947098</v>
+        <v>1.29460347914604</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.445379515557266</v>
@@ -29131,7 +29083,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.295754807211774</v>
+        <v>1.295222578275605</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.419773835868643</v>
@@ -29220,7 +29172,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.297339824303873</v>
+        <v>1.298088426801184</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.567125019206778</v>
@@ -29506,7 +29458,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.412679150977009</v>
+        <v>1.367598815505134</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.575487654694257</v>
@@ -29595,7 +29547,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.417541140761342</v>
+        <v>1.363497039343753</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.359640638188249</v>
@@ -29684,7 +29636,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.436949567894408</v>
+        <v>1.379574095336015</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.381676486687047</v>
@@ -29773,7 +29725,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.456352850000598</v>
+        <v>1.389632672396554</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.506248132674189</v>
@@ -29862,7 +29814,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.463753736838614</v>
+        <v>1.392824833741477</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.551556293907558</v>
@@ -29951,7 +29903,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.478768253984495</v>
+        <v>1.414951469223178</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.589327768255485</v>
@@ -30040,7 +29992,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.485875067579707</v>
+        <v>1.424300478449178</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.31521006246162</v>
@@ -30129,7 +30081,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.489250283772759</v>
+        <v>1.432424450428912</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.670043160995457</v>
@@ -30218,7 +30170,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.50084746031824</v>
+        <v>1.442076708211488</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.404933952944497</v>
@@ -30307,7 +30259,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.508856683477503</v>
+        <v>1.454483712192457</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.540762761506692</v>
@@ -30396,7 +30348,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.511031209506552</v>
+        <v>1.461469606534306</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.445578314395955</v>
@@ -30485,7 +30437,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.507974921955023</v>
+        <v>1.461272476721839</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.341735317029163</v>
@@ -30574,7 +30526,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.527548626662977</v>
+        <v>1.47808674279088</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.487174886286643</v>
@@ -30663,7 +30615,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.513253309731376</v>
+        <v>1.46659941245851</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.590528202454978</v>
@@ -30752,7 +30704,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.531685193214269</v>
+        <v>1.486712428226321</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.394843399312818</v>
@@ -30841,7 +30793,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.53135608748189</v>
+        <v>1.488972786074928</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.419235304531915</v>
@@ -30930,7 +30882,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.547226962749852</v>
+        <v>1.505999839556433</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.545165137175375</v>
@@ -31019,7 +30971,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.533198802850311</v>
+        <v>1.493491445283389</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.593152981327252</v>
@@ -31108,7 +31060,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.527838612440122</v>
+        <v>1.485970996960602</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.353147622988756</v>
@@ -31197,7 +31149,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.490319670980992</v>
+        <v>1.457758116576496</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.592435197641063</v>
@@ -31286,7 +31238,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.453248835537169</v>
+        <v>1.425407227864879</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.589780100862263</v>
@@ -31375,7 +31327,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.436012467902136</v>
+        <v>1.412578264608489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.473571672143679</v>
@@ -31464,7 +31416,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.417981078378786</v>
+        <v>1.397310759347254</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.565242717489959</v>
@@ -31553,7 +31505,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.415590019552345</v>
+        <v>1.388700671452131</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.398877299201856</v>
@@ -31642,7 +31594,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.409394149378581</v>
+        <v>1.383126477551786</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.561546882617669</v>
@@ -31731,7 +31683,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.409006667113692</v>
+        <v>1.382584982509761</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.609230505220231</v>
@@ -31820,7 +31772,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.40480537783328</v>
+        <v>1.380210638057456</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.676909105422083</v>
@@ -31909,7 +31861,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.405795089279687</v>
+        <v>1.380210682049908</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.608101573556306</v>
@@ -31998,7 +31950,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.410500664509962</v>
+        <v>1.38808434340647</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.467314757796691</v>
@@ -32087,7 +32039,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.408453043009529</v>
+        <v>1.380547290849041</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.466955947224707</v>
@@ -32176,7 +32128,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.404168981482167</v>
+        <v>1.377211667674694</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.488299068216755</v>
@@ -32265,7 +32217,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.404926697875157</v>
+        <v>1.376837980554103</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.498479628448079</v>
@@ -32354,7 +32306,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.409108146071905</v>
+        <v>1.382256844365705</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.554181797472679</v>
@@ -32443,7 +32395,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.422573661281911</v>
+        <v>1.393497404391938</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.317323241031959</v>
@@ -32532,7 +32484,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.462734053141696</v>
+        <v>1.424616411457029</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.440981273768661</v>
@@ -32621,7 +32573,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.491074537843015</v>
+        <v>1.445214293108879</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.367695649786371</v>
@@ -32710,7 +32662,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.521149791054118</v>
+        <v>1.460624003702824</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.563693024061486</v>
@@ -32799,7 +32751,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.533419449642337</v>
+        <v>1.470467966127997</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.913006113978473</v>
@@ -32888,7 +32840,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.532288613447118</v>
+        <v>1.476759169015662</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.711444866705428</v>
@@ -32977,7 +32929,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.538087028720677</v>
+        <v>1.483440170573851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.141722341904833</v>
@@ -33066,7 +33018,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.536867822547081</v>
+        <v>1.485067670231101</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.132188165295092</v>
@@ -33155,7 +33107,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.538457756936711</v>
+        <v>1.488684599579311</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.180195093806227</v>
@@ -33244,7 +33196,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548431556548873</v>
+        <v>1.485206468665427</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.020928724205269</v>
@@ -33333,7 +33285,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.549366984352206</v>
+        <v>1.492306739968539</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.098542292125857</v>
@@ -33422,7 +33374,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.542462838125428</v>
+        <v>1.489140188824126</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.062443547174547</v>
@@ -33511,7 +33463,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.547342221026364</v>
+        <v>1.488819459186177</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.186924940747469</v>
@@ -33600,7 +33552,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.504012412888865</v>
+        <v>1.458249606611337</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.580135130623916</v>
@@ -33689,7 +33641,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.505358862051119</v>
+        <v>1.458198993255498</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.463268582252489</v>
@@ -33778,7 +33730,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.506375052166371</v>
+        <v>1.461123691942706</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.459755800971038</v>
@@ -33867,7 +33819,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.504160341949191</v>
+        <v>1.465749830274062</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.388997583192276</v>
@@ -33956,7 +33908,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.50797155663882</v>
+        <v>1.466132167220776</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.424239507565228</v>
